--- a/config_3.23/act_ty_phb_config.xlsx
+++ b/config_3.23/act_ty_phb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -98,6 +98,13 @@
   </si>
   <si>
     <t>extra_award|额外奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_num|限制</t>
+  </si>
+  <si>
+    <t>ymkh_010_wxphb_rank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -113,47 +120,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_dlphb</t>
+      <t>9_dlphb</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>桃花数达到300万</t>
-  </si>
-  <si>
-    <t>桃花数达到180万</t>
-  </si>
-  <si>
-    <t>桃花数达到90万</t>
-  </si>
-  <si>
-    <t>桃花数达到45万</t>
-  </si>
-  <si>
-    <t>桃花数达到30万</t>
-  </si>
-  <si>
-    <t>桃花数达到18万</t>
-  </si>
-  <si>
-    <t>桃花数达到9万</t>
-  </si>
-  <si>
-    <t>cnhk_009_thphb_rank</t>
-  </si>
-  <si>
-    <t>need_num|限制</t>
+    <t>五星数达到300万</t>
+  </si>
+  <si>
+    <t>五星数达到180万</t>
+  </si>
+  <si>
+    <t>五星数达到90万</t>
+  </si>
+  <si>
+    <t>五星数达到45万</t>
+  </si>
+  <si>
+    <t>五星数达到30万</t>
+  </si>
+  <si>
+    <t>五星数达到18万</t>
+  </si>
+  <si>
+    <t>五星数达到9万</t>
   </si>
 </sst>
 </file>
@@ -224,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,9 +252,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,13 +629,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G2" s="6">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
@@ -656,8 +643,8 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>26</v>
+      <c r="J2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -705,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -826,7 +813,7 @@
         <v>3000000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -843,7 +830,7 @@
         <v>1800000</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -860,7 +847,7 @@
         <v>900000</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -877,7 +864,7 @@
         <v>450000</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -894,7 +881,7 @@
         <v>300000</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -911,7 +898,7 @@
         <v>180000</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -928,7 +915,7 @@
         <v>90000</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
